--- a/tex/tables/big results table.xlsx
+++ b/tex/tables/big results table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="46">
   <si>
     <t>Results table comparing rep, single dirs, cluster dirs</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>Clusters</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>PPMI</t>
   </si>
 </sst>
 </file>
@@ -2912,7 +2918,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,7 +3011,7 @@
       <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>0.43554260374100001</v>
       </c>
       <c r="C4" s="10">
@@ -3014,338 +3020,549 @@
       <c r="D4" s="10">
         <v>0.49234741373300001</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>0.23025009695500001</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>19</v>
+      <c r="F4" s="11">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.224</v>
       </c>
       <c r="H4" s="10">
         <v>0.46610961138899998</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>19</v>
+      <c r="I4" s="10">
+        <v>0.499</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.498</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.517981707342</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>19</v>
+      <c r="B5" s="10">
+        <v>0.431263945378</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.51326240296299996</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.50630553731700001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.21523561032300001</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.22001510773499999</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.21871679386099999</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.50420799538600003</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.50718019508300005</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.51275311213100006</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.42863501651685099</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.44293219718558402</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.48289412691870198</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.242930145630499</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.223818662284823</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.22399610181973301</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.46985382704546302</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.45267134732169201</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.45297965129401802</v>
+      </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.41514191309199999</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.472369548945</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.45515153136600001</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.18881129920100001</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5.00707095996E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>7.5284640895499993E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.47265642783099998</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.24345696979799999</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.37982236928899998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B10" s="10">
         <v>0.25099062666939198</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C10" s="10">
         <v>0.36589792208342797</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D10" s="10">
         <v>0.35551815276479598</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E10" s="10">
         <v>0.70549683900000004</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F10" s="10">
         <v>0.76967052800000002</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G10" s="10">
         <v>0.77324179599999998</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H10" s="10">
         <v>0.32808167024468299</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I10" s="10">
         <v>0.41336403846051301</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J10" s="10">
         <v>0.50086570022530197</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="11">
-        <v>0.41765932831545199</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.48996301771815498</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.53668646829229105</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.78427139552814096</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.81363903586125796</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.820923126407204</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0.67793165915597298</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0.70611229195340597</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0.71998642565522697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0.39355418659580599</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.43257423161414699</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.513059569703463</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.734835355285961</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0.84410326917201295</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.81347855684138803</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.45566003475729799</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0.56936802670081199</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0.58298351570539797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.41765932831545199</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.48996301771815498</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.53668646829229105</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.78427139552814096</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.81363903586125796</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.820923126407204</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.67793165915597298</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.70611229195340597</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.71998642565522697</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="10">
-        <v>0.43785847700000002</v>
+        <v>0.39355418659580599</v>
       </c>
       <c r="C12" s="10">
-        <v>0.47827899600000001</v>
+        <v>0.43257423161414699</v>
       </c>
       <c r="D12" s="10">
-        <v>0.45372053200000001</v>
+        <v>0.513059569703463</v>
       </c>
       <c r="E12" s="10">
-        <v>0.38296149600000001</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.39719726300000002</v>
+        <v>0.734835355285961</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.84410326917201295</v>
       </c>
       <c r="G12" s="10">
-        <v>0.39586445999999997</v>
+        <v>0.81347855684138803</v>
       </c>
       <c r="H12" s="10">
-        <v>0.34912567300000003</v>
+        <v>0.45566003475729799</v>
       </c>
       <c r="I12" s="10">
-        <v>0.33974778</v>
+        <v>0.56936802670081199</v>
       </c>
       <c r="J12" s="10">
-        <v>0.36701963900000001</v>
+        <v>0.58298351570539797</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="11">
-        <v>0.54111208520596199</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.49778643454622301</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.53070593052644999</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.40422847592748301</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0.42793062244388302</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.389977981844501</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0.44430640006639699</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0.53334130424998205</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0.47253869397307202</v>
+        <v>45</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.33036338448931801</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.406780075282477</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.44442116940815202</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.699599047738378</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.71883453378092099</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.73012072233862102</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.61590340397625798</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.699281363771182</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.72280297468233701</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="10">
-        <v>0.46152941104822198</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0.50703808066835299</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.496472090656988</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.41304422271385099</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0.42046988358073401</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0.428964152453082</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0.44374355897008699</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0.45820454454956</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0.46995534822674301</v>
+        <v>44</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.431453358494362</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.42294988876850098</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.44407182948365198</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.78960022820815801</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.79062017394131501</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.811025498451028</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.41104219789778901</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.52666152678585698</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.53557161942537801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.43785847700000002</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.47827899600000001</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.45372053200000001</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.38296149600000001</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.39719726300000002</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.39586445999999997</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.34912567300000003</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.33974778</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0.36701963900000001</v>
+      </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.54111208520596199</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.49778643454622301</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.53070593052644999</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.40422847592748301</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.42793062244388302</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.389977981844501</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.44430640006639699</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.53334130424998205</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.47253869397307202</v>
+      </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.46152941104822198</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.50703808066835299</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.496472090656988</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.41304422271385099</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.42046988358073401</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.428964152453082</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.44374355897008699</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.45820454454956</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0.46995534822674301</v>
+      </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.47349225425469699</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.51181417604897705</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.49129627173318802</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.37145106578679399</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.35121998051923298</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.352395495213155</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.36089578382508702</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.30117394800674102</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.24157045346101499</v>
+      </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.48823311889800802</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.43257311746990301</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.52619277285495403</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.36506180211406303</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.27101453586114699</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.31317924111954998</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.36456762643842699</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.30038376174855902</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.21945278126503101</v>
+      </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
